--- a/addons-dev/dgf_auction/data/dgf.auction.lot.stage.xlsx
+++ b/addons-dev/dgf_auction/data/dgf.auction.lot.stage.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coding\odoo\project\dgf\liquidation-dev\addons-dev\dgf_auction\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,12 +54,6 @@
     <t>Очікується підписання договору</t>
   </si>
   <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>В оренді</t>
-  </si>
-  <si>
     <t>unsuccessful_auctions</t>
   </si>
   <si>
@@ -71,13 +70,19 @@
   </si>
   <si>
     <t>Актив продано</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Договір підписано</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,17 +127,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,9 +183,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +217,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,17 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -457,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -474,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -491,15 +508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -508,15 +525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -525,15 +542,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -542,15 +559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
